--- a/publication/web-root/exampleig/all-profiles.xlsx
+++ b/publication/web-root/exampleig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T15:55:17-05:00</t>
+    <t>2023-05-02T10:49:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/exampleig/all-profiles.xlsx
+++ b/publication/web-root/exampleig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T10:49:48-05:00</t>
+    <t>2023-05-02T11:11:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
